--- a/src/main/java/testdata/URLsTestData.xlsx
+++ b/src/main/java/testdata/URLsTestData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="117">
   <si>
     <t>S.No.</t>
   </si>
@@ -208,6 +208,183 @@
   </si>
   <si>
     <t>770</t>
+  </si>
+  <si>
+    <t>2527</t>
+  </si>
+  <si>
+    <t>2437</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>5166</t>
+  </si>
+  <si>
+    <t>2878</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>653</t>
+  </si>
+  <si>
+    <t>1623</t>
+  </si>
+  <si>
+    <t>1379</t>
+  </si>
+  <si>
+    <t>2130</t>
+  </si>
+  <si>
+    <t>3309</t>
+  </si>
+  <si>
+    <t>3553</t>
+  </si>
+  <si>
+    <t>1774</t>
+  </si>
+  <si>
+    <t>1063</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>696</t>
+  </si>
+  <si>
+    <t>1617</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>3204</t>
+  </si>
+  <si>
+    <t>2271</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>4428</t>
+  </si>
+  <si>
+    <t>1826</t>
+  </si>
+  <si>
+    <t>935</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>1452</t>
+  </si>
+  <si>
+    <t>909</t>
+  </si>
+  <si>
+    <t>2068</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>1067</t>
+  </si>
+  <si>
+    <t>3747</t>
+  </si>
+  <si>
+    <t>2049</t>
+  </si>
+  <si>
+    <t>984</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>1388</t>
+  </si>
+  <si>
+    <t>985</t>
+  </si>
+  <si>
+    <t>2.101 seconds</t>
+  </si>
+  <si>
+    <t>2.9 seconds</t>
+  </si>
+  <si>
+    <t>1.19 seconds</t>
+  </si>
+  <si>
+    <t>3.904 seconds</t>
+  </si>
+  <si>
+    <t>1.813 seconds</t>
+  </si>
+  <si>
+    <t>0.932 seconds</t>
+  </si>
+  <si>
+    <t>0.474 seconds</t>
+  </si>
+  <si>
+    <t>0.625 seconds</t>
+  </si>
+  <si>
+    <t>1.541 seconds</t>
+  </si>
+  <si>
+    <t>0.81 seconds</t>
+  </si>
+  <si>
+    <t>2.265 seconds</t>
+  </si>
+  <si>
+    <t>2.315 seconds</t>
+  </si>
+  <si>
+    <t>1.269 seconds</t>
+  </si>
+  <si>
+    <t>4.858 seconds</t>
+  </si>
+  <si>
+    <t>1.905 seconds</t>
+  </si>
+  <si>
+    <t>0.92 seconds</t>
+  </si>
+  <si>
+    <t>0.438 seconds</t>
+  </si>
+  <si>
+    <t>0.599 seconds</t>
+  </si>
+  <si>
+    <t>1.198 seconds</t>
+  </si>
+  <si>
+    <t>0.702 seconds</t>
   </si>
 </sst>
 </file>
@@ -595,7 +772,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -606,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -617,7 +794,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -628,7 +805,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -639,7 +816,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -650,7 +827,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -661,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -672,7 +849,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -683,7 +860,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -694,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
